--- a/data/trans_dic/Q17F_D_R3-Clase-trans_dic.xlsx
+++ b/data/trans_dic/Q17F_D_R3-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.1186327893017214</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2303756663375224</v>
+        <v>0.2303756663375223</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09235975142017062</v>
+        <v>0.09264722740155204</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0513818371067242</v>
+        <v>0.0534138514566037</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05307857577233915</v>
+        <v>0.05294382537111533</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1750473734901616</v>
+        <v>0.1820631213302727</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07169589006769898</v>
+        <v>0.07404804024832841</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03706093985592662</v>
+        <v>0.03714321378965725</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06433133256525819</v>
+        <v>0.06708719316874152</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1498261908457335</v>
+        <v>0.1448538236209023</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.104869073644982</v>
+        <v>0.1006429561760681</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0598266312713038</v>
+        <v>0.0590476720078367</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0759089081452306</v>
+        <v>0.07242060235610172</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1781001956614289</v>
+        <v>0.1842754804818064</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2838668760746682</v>
+        <v>0.2753429249865162</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.214115022788771</v>
+        <v>0.2018918131669205</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2062766300207993</v>
+        <v>0.1994252485000065</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3456055000857335</v>
+        <v>0.3488376037444205</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2312974998805668</v>
+        <v>0.2308262111040638</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1765938793752728</v>
+        <v>0.1722016788539547</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.213136338452315</v>
+        <v>0.220781534847404</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2725935238555773</v>
+        <v>0.2749299112837226</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2259867449368688</v>
+        <v>0.2249660818732503</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1607029066363508</v>
+        <v>0.154816681233511</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1793687844143096</v>
+        <v>0.1792867642779429</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2826494692081671</v>
+        <v>0.2941004476080833</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1049828522354985</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1806590787992887</v>
+        <v>0.1806590787992888</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1215507638992236</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06286250175485494</v>
+        <v>0.06611534332016203</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03256218400674727</v>
+        <v>0.03348059912269295</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05320090478628803</v>
+        <v>0.0510504955286263</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1129290686524003</v>
+        <v>0.1179073166014252</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05672162904838057</v>
+        <v>0.05815798889521666</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04968325642865451</v>
+        <v>0.04925410194606455</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1288529420245861</v>
+        <v>0.1254727419427765</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1123090954216949</v>
+        <v>0.1129130695996345</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07663464269296527</v>
+        <v>0.07674979729515528</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04903572561452434</v>
+        <v>0.05273954963100551</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1036674766330608</v>
+        <v>0.1049149591026281</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1312802240188094</v>
+        <v>0.1312090973343134</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2424096135981847</v>
+        <v>0.2345569125840474</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1522199920832269</v>
+        <v>0.1531988909451847</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1955177048935549</v>
+        <v>0.1826070855493975</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.259756214563153</v>
+        <v>0.2631239714196522</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2024803245673482</v>
+        <v>0.2134271448895531</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1684669269854847</v>
+        <v>0.1740139250885188</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3091324706952679</v>
+        <v>0.2944864199011513</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2429165599822649</v>
+        <v>0.2387750761644488</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1895653669905809</v>
+        <v>0.191334901887798</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1319456417167258</v>
+        <v>0.136916519947829</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2183150387872164</v>
+        <v>0.2178186889563415</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2268984079531145</v>
+        <v>0.2301006156418913</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1022522481590871</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2376426592983635</v>
+        <v>0.2376426592983634</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1243125620222748</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07382543630815028</v>
+        <v>0.07246089744781006</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1243978295860005</v>
+        <v>0.1198782641138162</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02514980349477571</v>
+        <v>0.02583797546118251</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09406497982943889</v>
+        <v>0.0940428081733322</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05552520526199353</v>
+        <v>0.05319358303129566</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04664089884100386</v>
+        <v>0.04530328546840626</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03455407966610075</v>
+        <v>0.03592164499956477</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1470057609796708</v>
+        <v>0.1542272530626406</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.07962284900074601</v>
+        <v>0.07827663588764092</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1103544706440548</v>
+        <v>0.1023843183290176</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03796293108441181</v>
+        <v>0.03666516276266013</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1283093216672257</v>
+        <v>0.1335813929892714</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1938200677043477</v>
+        <v>0.1917902111090648</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2524902001210065</v>
+        <v>0.2502647841836912</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1044130311616252</v>
+        <v>0.1129981271330479</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2498479380376288</v>
+        <v>0.2406825956844658</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2655888356967824</v>
+        <v>0.2394749247613748</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1751792254752328</v>
+        <v>0.1670056347706009</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2084100393979705</v>
+        <v>0.2169765723695906</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.344316605932696</v>
+        <v>0.3527044031909874</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1828384504481303</v>
+        <v>0.1786252486806153</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2079053874300555</v>
+        <v>0.2020728083435255</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1170312677358251</v>
+        <v>0.1122013128486597</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2459728239632185</v>
+        <v>0.2555370729329561</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.1131061040399927</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2201562966522968</v>
+        <v>0.2201562966522969</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1084184678998761</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07795600088065049</v>
+        <v>0.07512351264890808</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08675411882607344</v>
+        <v>0.09145916041418725</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09475049636655562</v>
+        <v>0.09422449817037314</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1135319685469314</v>
+        <v>0.1156249025260936</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06668029750865014</v>
+        <v>0.06517106718786118</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08689934318850953</v>
+        <v>0.08781688485849808</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07921453681082784</v>
+        <v>0.07907194940280808</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1730425325477498</v>
+        <v>0.1752615983193996</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.08252222199900489</v>
+        <v>0.08245912105512868</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09978936868744165</v>
+        <v>0.09762036621955521</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.09594277321333691</v>
+        <v>0.09624030748623892</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1568569749004317</v>
+        <v>0.1565741956682242</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1536780966636583</v>
+        <v>0.1573299630169478</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1744584004687205</v>
+        <v>0.1730115367486574</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1799282428402453</v>
+        <v>0.182776466783325</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2163086538044872</v>
+        <v>0.2160391071482594</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1544453180805805</v>
+        <v>0.1557405015974895</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1757575434719594</v>
+        <v>0.1751672032516657</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.15853090806457</v>
+        <v>0.1597909443399849</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2728159653816941</v>
+        <v>0.2766701880920252</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.138002989394197</v>
+        <v>0.1386141226552362</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.161593851104793</v>
+        <v>0.1598686382700184</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1559022116807394</v>
+        <v>0.1557995147059151</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2303777574830251</v>
+        <v>0.2295692807046011</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06104882913585093</v>
+        <v>0.05309389860581058</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04868149393184414</v>
+        <v>0.04943301906343445</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0831301828089431</v>
+        <v>0.07823164454771264</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1198625109244385</v>
+        <v>0.1173222670536908</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07325910914759828</v>
+        <v>0.07479423913064637</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04997937263464515</v>
+        <v>0.05119647901655566</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09280910464440641</v>
+        <v>0.09131859301021349</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1538113316238406</v>
+        <v>0.153876132169118</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.08079753013752479</v>
+        <v>0.07947044602838793</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05493980020666449</v>
+        <v>0.05832041648502554</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0994069781670113</v>
+        <v>0.09798519808658422</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1547703626325717</v>
+        <v>0.1561365768609739</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2058778466451166</v>
+        <v>0.1996245664478602</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1697101566459591</v>
+        <v>0.1683564366897185</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1875537061139112</v>
+        <v>0.1899140201940567</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2799734570973894</v>
+        <v>0.2788224497851103</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1800672207110901</v>
+        <v>0.1755753789432916</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1193528506582078</v>
+        <v>0.1177991594976617</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.184738782961563</v>
+        <v>0.1829717832544831</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2429731664351894</v>
+        <v>0.2442663968227234</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1666186125645678</v>
+        <v>0.1629460283234109</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.114623597058043</v>
+        <v>0.1146276235072446</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1636644403140683</v>
+        <v>0.1638298349752997</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.23138943022524</v>
+        <v>0.2331478422587935</v>
       </c>
     </row>
     <row r="19">
@@ -1391,37 +1391,37 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05253864023382279</v>
+        <v>0.0270725348375157</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0252191295394829</v>
+        <v>0.025011392272742</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02034455942102326</v>
+        <v>0.02098956561095924</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.06304474674855139</v>
+        <v>0.0634743774832973</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.08595958552372859</v>
+        <v>0.09040749342193469</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0824917162011297</v>
+        <v>0.08347280455564296</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1452584871636674</v>
+        <v>0.1425407299267296</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.06446706589177371</v>
+        <v>0.06537607388223797</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.08918305269593976</v>
+        <v>0.09174141767680111</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.08255520289622571</v>
+        <v>0.0797703654000157</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1413942195337878</v>
+        <v>0.1399381986289889</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3236419249307234</v>
+        <v>0.2856086454416391</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3285536519759712</v>
+        <v>0.3089197755853086</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2127206972713083</v>
+        <v>0.2054179767894568</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4073328457848647</v>
+        <v>0.4180086660080261</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1254389458506007</v>
+        <v>0.1245945066331315</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1616991317542099</v>
+        <v>0.1636959470715611</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1515736360016214</v>
+        <v>0.1538305764742382</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.256869088298065</v>
+        <v>0.2626463135523133</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1220595450796241</v>
+        <v>0.1249851278256316</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1618399109571804</v>
+        <v>0.1611506793926652</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1530597231587531</v>
+        <v>0.1504789467311949</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2534235338229877</v>
+        <v>0.2487471530320133</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.09903836442405377</v>
+        <v>0.09727447124614384</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1043376073188363</v>
+        <v>0.1031819047775834</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08802858296415721</v>
+        <v>0.08692838972958122</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1560013961157831</v>
+        <v>0.155761516074525</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.08810146126791168</v>
+        <v>0.08853856725266156</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.08875388735185137</v>
+        <v>0.08798705167619286</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.107760252658635</v>
+        <v>0.1058467204247746</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1794884934409726</v>
+        <v>0.1805635802907418</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.09770346712220877</v>
+        <v>0.09676933400024471</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.09887433193188273</v>
+        <v>0.09974691541337043</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1033567534974148</v>
+        <v>0.1028200396665229</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1761591365404593</v>
+        <v>0.1761957287189081</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1519870114445346</v>
+        <v>0.1499710739950407</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1562323586667608</v>
+        <v>0.1547515380585112</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1327450841154197</v>
+        <v>0.1336132769522018</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2144174365133336</v>
+        <v>0.2191895121840735</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1286334637154148</v>
+        <v>0.1280283891211674</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1268224812513726</v>
+        <v>0.1260385672624257</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1494179082712173</v>
+        <v>0.1495015687158657</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2245232158021572</v>
+        <v>0.2259729708580941</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1306089553803311</v>
+        <v>0.1291858485473174</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.129267815903245</v>
+        <v>0.1287276152566816</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1327943943194393</v>
+        <v>0.1348063291185339</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2134113357573453</v>
+        <v>0.2154511545623155</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7241</v>
+        <v>7263</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3950</v>
+        <v>4106</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5081</v>
+        <v>5068</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>21655</v>
+        <v>22523</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5377</v>
+        <v>5553</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2848</v>
+        <v>2854</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5854</v>
+        <v>6105</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>17086</v>
+        <v>16519</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>16086</v>
+        <v>15438</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>9195</v>
+        <v>9076</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>14174</v>
+        <v>13522</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>42344</v>
+        <v>43812</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>22255</v>
+        <v>21587</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16459</v>
+        <v>15519</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>19744</v>
+        <v>19089</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>42756</v>
+        <v>43155</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>17346</v>
+        <v>17310</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>13568</v>
+        <v>13231</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>19395</v>
+        <v>20091</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>31087</v>
+        <v>31354</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>34665</v>
+        <v>34508</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>24700</v>
+        <v>23795</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>33491</v>
+        <v>33476</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>67201</v>
+        <v>69923</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3689</v>
+        <v>3880</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2930</v>
+        <v>3013</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4884</v>
+        <v>4687</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>10756</v>
+        <v>11231</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>5029</v>
+        <v>5156</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4705</v>
+        <v>4664</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>11688</v>
+        <v>11381</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>10769</v>
+        <v>10827</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>11291</v>
+        <v>11308</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>9056</v>
+        <v>9740</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>18921</v>
+        <v>19149</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>25092</v>
+        <v>25079</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14225</v>
+        <v>13764</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>13698</v>
+        <v>13786</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>17951</v>
+        <v>16766</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>24742</v>
+        <v>25063</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>17952</v>
+        <v>18922</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>15953</v>
+        <v>16478</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>28040</v>
+        <v>26711</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>23292</v>
+        <v>22895</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>27931</v>
+        <v>28191</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>24368</v>
+        <v>25286</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>39846</v>
+        <v>39756</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>43368</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8462</v>
+        <v>8305</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>18919</v>
+        <v>18232</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3823</v>
+        <v>3928</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8835</v>
+        <v>8833</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3045</v>
+        <v>2917</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4096</v>
+        <v>3978</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2063</v>
+        <v>2145</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7783</v>
+        <v>8165</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>13493</v>
+        <v>13265</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>26474</v>
+        <v>24562</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>8038</v>
+        <v>7764</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>18845</v>
+        <v>19619</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>22216</v>
+        <v>21983</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>38401</v>
+        <v>38062</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15874</v>
+        <v>17179</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>23468</v>
+        <v>22607</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>14565</v>
+        <v>13133</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>15384</v>
+        <v>14666</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>12445</v>
+        <v>12956</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>18229</v>
+        <v>18673</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>30984</v>
+        <v>30270</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>49877</v>
+        <v>48478</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>24780</v>
+        <v>23758</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>36126</v>
+        <v>37531</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>20296</v>
+        <v>19559</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>24489</v>
+        <v>25818</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>26412</v>
+        <v>26266</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>24361</v>
+        <v>24810</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>13819</v>
+        <v>13507</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>20599</v>
+        <v>20816</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>20293</v>
+        <v>20257</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>34741</v>
+        <v>35186</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>38588</v>
+        <v>38559</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>51823</v>
+        <v>50697</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>51324</v>
+        <v>51483</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>65149</v>
+        <v>65031</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>40011</v>
+        <v>40962</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>49247</v>
+        <v>48839</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>50156</v>
+        <v>50950</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>46414</v>
+        <v>46357</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>32009</v>
+        <v>32277</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>41661</v>
+        <v>41521</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>40613</v>
+        <v>40936</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>54771</v>
+        <v>55545</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>64531</v>
+        <v>64817</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>83920</v>
+        <v>83024</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>83398</v>
+        <v>83344</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>95685</v>
+        <v>95349</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4228</v>
+        <v>3677</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5123</v>
+        <v>5202</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>13071</v>
+        <v>12301</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>10992</v>
+        <v>10760</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>12808</v>
+        <v>13076</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>13538</v>
+        <v>13868</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>23324</v>
+        <v>22949</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>31325</v>
+        <v>31338</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>19722</v>
+        <v>19398</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>20664</v>
+        <v>21935</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>40612</v>
+        <v>40031</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>45714</v>
+        <v>46117</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>14260</v>
+        <v>13826</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>17861</v>
+        <v>17718</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>29491</v>
+        <v>29862</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>25676</v>
+        <v>25571</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>31481</v>
+        <v>30695</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>32330</v>
+        <v>31909</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>46426</v>
+        <v>45982</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>49483</v>
+        <v>49746</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>40670</v>
+        <v>39774</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>43112</v>
+        <v>43114</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>66864</v>
+        <v>66932</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>68344</v>
+        <v>68864</v>
       </c>
     </row>
     <row r="24">
@@ -2777,37 +2777,37 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1921</v>
+        <v>990</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>23182</v>
+        <v>23340</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>29208</v>
+        <v>30719</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>29218</v>
+        <v>29565</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>26731</v>
+        <v>26231</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>25049</v>
+        <v>25402</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>33564</v>
+        <v>34526</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>32600</v>
+        <v>31501</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>28787</v>
+        <v>28491</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6745</v>
+        <v>5952</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>12011</v>
+        <v>11293</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>8659</v>
+        <v>8361</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7972</v>
+        <v>8181</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>46125</v>
+        <v>45815</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>54943</v>
+        <v>55622</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>53686</v>
+        <v>54485</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>47270</v>
+        <v>48333</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>47426</v>
+        <v>48563</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>60908</v>
+        <v>60648</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>60442</v>
+        <v>59423</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>51596</v>
+        <v>50643</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>59637</v>
+        <v>58575</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>77525</v>
+        <v>76667</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>71854</v>
+        <v>70956</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>99645</v>
+        <v>99492</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>85307</v>
+        <v>85730</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>98255</v>
+        <v>97406</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>118870</v>
+        <v>116759</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>152801</v>
+        <v>153716</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>153438</v>
+        <v>151971</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>182925</v>
+        <v>184539</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>198378</v>
+        <v>197348</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>262487</v>
+        <v>262542</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>91521</v>
+        <v>90307</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>116085</v>
+        <v>114984</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>108354</v>
+        <v>109063</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>136958</v>
+        <v>140006</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>124554</v>
+        <v>123968</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>140399</v>
+        <v>139531</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>164823</v>
+        <v>164915</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>191139</v>
+        <v>192373</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>205114</v>
+        <v>202879</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>239155</v>
+        <v>238155</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>254880</v>
+        <v>258741</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>317995</v>
+        <v>321035</v>
       </c>
     </row>
     <row r="32">
